--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88388</v>
+        <v>9546</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuelly Costa</t>
+          <t>Benjamin Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>5473.03</v>
+        <v>3700.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83993</v>
+        <v>36623</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Larissa Costa</t>
+          <t>Clarice Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,55 +519,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>9604.110000000001</v>
+        <v>7880.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19987</v>
+        <v>3438</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Vitor Azevedo</t>
+          <t>Bianca Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>3179.46</v>
+        <v>11505.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27708</v>
+        <v>19849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isaac Martins</t>
+          <t>Kaique da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,114 +581,114 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>4439.75</v>
+        <v>12024.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52216</v>
+        <v>57484</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Daniela Ferreira</t>
+          <t>Bárbara Fogaça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>11043.78</v>
+        <v>8805.030000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35739</v>
+        <v>64135</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vinicius Ferreira</t>
+          <t>Yuri Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>11354.07</v>
+        <v>2784.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5090</v>
+        <v>74591</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luigi Costa</t>
+          <t>Igor Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>8912.49</v>
+        <v>7579.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47386</v>
+        <v>95588</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Enzo Gabriel Nunes</t>
+          <t>Theo Carvalho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>6186.65</v>
+        <v>5780.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13188</v>
+        <v>84657</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Otávio Moraes</t>
+          <t>Augusto da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>10370.98</v>
+        <v>9580.459999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6709</v>
+        <v>87006</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Júlia Sales</t>
+          <t>Olivia Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>8081.34</v>
+        <v>5860</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9546</v>
+        <v>29380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benjamin Moreira</t>
+          <t>Diogo Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>3700.5</v>
+        <v>10404.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36623</v>
+        <v>75412</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clarice Farias</t>
+          <t>Pedro Henrique Mendes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>7880.19</v>
+        <v>9850.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3438</v>
+        <v>60658</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bianca Santos</t>
+          <t>Maria Fernanda Moura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>11505.39</v>
+        <v>9435.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19849</v>
+        <v>19416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique da Costa</t>
+          <t>Maria Julia Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>12024.58</v>
+        <v>3130.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57484</v>
+        <v>37749</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Fogaça</t>
+          <t>Natália Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>8805.030000000001</v>
+        <v>9674.620000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64135</v>
+        <v>41751</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yuri Aragão</t>
+          <t>Cecília Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,111 +642,111 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>2784.46</v>
+        <v>9582.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74591</v>
+        <v>43462</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Igor Cavalcanti</t>
+          <t>Olivia Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>7579.25</v>
+        <v>3736.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95588</v>
+        <v>15243</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Carvalho</t>
+          <t>Bruna Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>5780.79</v>
+        <v>3263.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84657</v>
+        <v>79587</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto da Rosa</t>
+          <t>Fernando da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>9580.459999999999</v>
+        <v>8839.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87006</v>
+        <v>91696</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Rocha</t>
+          <t>Juliana Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>5860</v>
+        <v>8928.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29380</v>
+        <v>84027</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diogo Viana</t>
+          <t>Calebe Pires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>10404.22</v>
+        <v>5785.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75412</v>
+        <v>33377</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Henrique Mendes</t>
+          <t>Luna da Rosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>9850.82</v>
+        <v>6449.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60658</v>
+        <v>65349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Fernanda Moura</t>
+          <t>Rafaela da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>9435.58</v>
+        <v>9581.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19416</v>
+        <v>13434</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Julia Ramos</t>
+          <t>Sr. Bruno Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>3130.98</v>
+        <v>6798.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37749</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natália Gomes</t>
+          <t>Ana Vitória da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>9674.620000000001</v>
+        <v>2796.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41751</v>
+        <v>56012</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cecília Duarte</t>
+          <t>Vitor Hugo Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>9582.58</v>
+        <v>8961.879999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43462</v>
+        <v>44095</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olivia Silva</t>
+          <t>Arthur Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>3736.63</v>
+        <v>4411.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15243</v>
+        <v>47353</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruna Rezende</t>
+          <t>Eduarda Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>3263.23</v>
+        <v>9711.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79587</v>
+        <v>40439</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernando da Mota</t>
+          <t>Dra. Lívia Dias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>8839.09</v>
+        <v>9901.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91696</v>
+        <v>93235</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juliana Azevedo</t>
+          <t>Mariane Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>8928.5</v>
+        <v>10476.65</v>
       </c>
     </row>
   </sheetData>
